--- a/Data/t1.1.xlsx
+++ b/Data/t1.1.xlsx
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>303.1058119678788</v>
+        <v>3.031058119678788</v>
       </c>
     </row>
     <row r="3">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>135.8315873611814</v>
+        <v>1.358315873611814</v>
       </c>
     </row>
     <row r="4">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>45.28829734410456</v>
+        <v>0.4528829734410457</v>
       </c>
     </row>
     <row r="5">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>332.940741906964</v>
+        <v>3.32940741906964</v>
       </c>
     </row>
     <row r="6">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1496.748253018621</v>
+        <v>14.96748253018621</v>
       </c>
     </row>
     <row r="7">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>281.3154739557465</v>
+        <v>2.813154739557465</v>
       </c>
     </row>
     <row r="8">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>626.5123348391076</v>
+        <v>6.265123348391076</v>
       </c>
     </row>
     <row r="9">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1260.215450945247</v>
+        <v>12.60215450945247</v>
       </c>
     </row>
     <row r="10">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>428.9036102263516</v>
+        <v>4.289036102263516</v>
       </c>
     </row>
     <row r="11">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>212.5564665560537</v>
+        <v>2.125564665560537</v>
       </c>
     </row>
     <row r="12">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>383.1308813021528</v>
+        <v>3.831308813021528</v>
       </c>
     </row>
     <row r="13">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>679.9027503602955</v>
+        <v>6.799027503602955</v>
       </c>
     </row>
     <row r="14">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>830.8607138099301</v>
+        <v>8.308607138099301</v>
       </c>
     </row>
     <row r="15">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>743.959743735695</v>
+        <v>7.439597437356951</v>
       </c>
     </row>
     <row r="16">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1628.431894975233</v>
+        <v>16.28431894975233</v>
       </c>
     </row>
     <row r="17">
@@ -857,7 +857,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>299.7844279468579</v>
+        <v>2.997844279468579</v>
       </c>
     </row>
     <row r="18">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>188.3924138014563</v>
+        <v>1.883924138014563</v>
       </c>
     </row>
     <row r="19">
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>122.1191459471242</v>
+        <v>1.221191459471242</v>
       </c>
     </row>
     <row r="20">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>334.3671657894021</v>
+        <v>3.343671657894021</v>
       </c>
     </row>
     <row r="21">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>129.9435741968535</v>
+        <v>1.299435741968535</v>
       </c>
     </row>
     <row r="22">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>46.44316927391416</v>
+        <v>0.4644316927391416</v>
       </c>
     </row>
     <row r="23">
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>436.9539151196586</v>
+        <v>4.369539151196586</v>
       </c>
     </row>
     <row r="24">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1386.129299567987</v>
+        <v>13.86129299567987</v>
       </c>
     </row>
     <row r="25">
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>266.6846931065813</v>
+        <v>2.666846931065813</v>
       </c>
     </row>
     <row r="26">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>627.7286605073934</v>
+        <v>6.277286605073934</v>
       </c>
     </row>
     <row r="27">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1285.437476699797</v>
+        <v>12.85437476699797</v>
       </c>
     </row>
     <row r="28">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>444.9905535899962</v>
+        <v>4.449905535899962</v>
       </c>
     </row>
     <row r="29">
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>221.3542891593279</v>
+        <v>2.213542891593279</v>
       </c>
     </row>
     <row r="30">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>368.2500636345846</v>
+        <v>3.682500636345846</v>
       </c>
     </row>
     <row r="31">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>643.5385292306516</v>
+        <v>6.435385292306517</v>
       </c>
     </row>
     <row r="32">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>836.9392932757499</v>
+        <v>8.369392932757499</v>
       </c>
     </row>
     <row r="33">
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>762.4431488463398</v>
+        <v>7.624431488463398</v>
       </c>
     </row>
     <row r="34">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1607.486276566264</v>
+        <v>16.07486276566264</v>
       </c>
     </row>
     <row r="35">
@@ -1307,7 +1307,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>302.4974593202293</v>
+        <v>3.024974593202293</v>
       </c>
     </row>
     <row r="36">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>179.3809960647356</v>
+        <v>1.793809960647356</v>
       </c>
     </row>
     <row r="37">
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>119.4314360505324</v>
+        <v>1.194314360505324</v>
       </c>
     </row>
     <row r="38">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>317.4200752810229</v>
+        <v>3.174200752810229</v>
       </c>
     </row>
     <row r="39">
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>124.4010210394603</v>
+        <v>1.244010210394603</v>
       </c>
     </row>
     <row r="40">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>48.36528416985916</v>
+        <v>0.4836528416985916</v>
       </c>
     </row>
     <row r="41">
@@ -1457,7 +1457,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>454.7611667947733</v>
+        <v>4.547611667947733</v>
       </c>
     </row>
     <row r="42">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1255.467717113155</v>
+        <v>12.55467717113155</v>
       </c>
     </row>
     <row r="43">
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>244.8135303604388</v>
+        <v>2.448135303604388</v>
       </c>
     </row>
     <row r="44">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>647.8266274800901</v>
+        <v>6.478266274800901</v>
       </c>
     </row>
     <row r="45">
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1339.28752431148</v>
+        <v>13.3928752431148</v>
       </c>
     </row>
     <row r="46">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>447.1212006861309</v>
+        <v>4.471212006861308</v>
       </c>
     </row>
     <row r="47">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>230.15642146723</v>
+        <v>2.3015642146723</v>
       </c>
     </row>
     <row r="48">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>362.5833148318163</v>
+        <v>3.625833148318163</v>
       </c>
     </row>
     <row r="49">
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>635.7975887700314</v>
+        <v>6.357975887700314</v>
       </c>
     </row>
     <row r="50">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>876.708092966274</v>
+        <v>8.76708092966274</v>
       </c>
     </row>
     <row r="51">
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>786.2643765330934</v>
+        <v>7.862643765330934</v>
       </c>
     </row>
     <row r="52">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1592.720440988222</v>
+        <v>15.92720440988222</v>
       </c>
     </row>
     <row r="53">
@@ -1757,7 +1757,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>337.211202320127</v>
+        <v>3.37211202320127</v>
       </c>
     </row>
     <row r="54">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>183.4080354955557</v>
+        <v>1.834080354955557</v>
       </c>
     </row>
     <row r="55">
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>115.6863793912403</v>
+        <v>1.156863793912402</v>
       </c>
     </row>
     <row r="56">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>345.01818277643</v>
+        <v>3.4501818277643</v>
       </c>
     </row>
     <row r="57">
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>134.9346474122493</v>
+        <v>1.349346474122493</v>
       </c>
     </row>
     <row r="58">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>47.7210041811614</v>
+        <v>0.4772100418116141</v>
       </c>
     </row>
     <row r="59">
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>415.9946944942203</v>
+        <v>4.159946944942203</v>
       </c>
     </row>
     <row r="60">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1226.970679175013</v>
+        <v>12.26970679175014</v>
       </c>
     </row>
     <row r="61">
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>203.8271670004565</v>
+        <v>2.038271670004565</v>
       </c>
     </row>
     <row r="62">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>638.2440005621737</v>
+        <v>6.382440005621738</v>
       </c>
     </row>
     <row r="63">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>1348.527370788099</v>
+        <v>13.48527370788099</v>
       </c>
     </row>
     <row r="64">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>446.7099715400005</v>
+        <v>4.467099715400005</v>
       </c>
     </row>
     <row r="65">
@@ -2057,7 +2057,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>237.3137802607079</v>
+        <v>2.373137802607079</v>
       </c>
     </row>
     <row r="66">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>345.8877938231245</v>
+        <v>3.458877938231244</v>
       </c>
     </row>
     <row r="67">
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>598.5625065879627</v>
+        <v>5.985625065879628</v>
       </c>
     </row>
     <row r="68">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>920.5623484768656</v>
+        <v>9.205623484768656</v>
       </c>
     </row>
     <row r="69">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>799.8028003232458</v>
+        <v>7.998028003232458</v>
       </c>
     </row>
     <row r="70">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1638.617318435751</v>
+        <v>16.38617318435751</v>
       </c>
     </row>
     <row r="71">
@@ -2207,7 +2207,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>353.1345525455889</v>
+        <v>3.531345525455889</v>
       </c>
     </row>
     <row r="72">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>180.3432767646955</v>
+        <v>1.803432767646955</v>
       </c>
     </row>
     <row r="73">
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>117.8279048522541</v>
+        <v>1.178279048522541</v>
       </c>
     </row>
     <row r="74">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>319.9668431892817</v>
+        <v>3.199668431892817</v>
       </c>
     </row>
     <row r="75">
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>135.0926874431643</v>
+        <v>1.350926874431643</v>
       </c>
     </row>
     <row r="76">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>47.63174543420124</v>
+        <v>0.4763174543420124</v>
       </c>
     </row>
     <row r="77">
@@ -2357,7 +2357,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>371.6205210252546</v>
+        <v>3.716205210252546</v>
       </c>
     </row>
     <row r="78">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1201.302945220875</v>
+        <v>12.01302945220875</v>
       </c>
     </row>
     <row r="79">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>188.9805487283264</v>
+        <v>1.889805487283264</v>
       </c>
     </row>
     <row r="80">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>617.2580314973615</v>
+        <v>6.172580314973614</v>
       </c>
     </row>
     <row r="81">
@@ -2457,7 +2457,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1360.543314804296</v>
+        <v>13.60543314804296</v>
       </c>
     </row>
     <row r="82">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>458.0116290153476</v>
+        <v>4.580116290153476</v>
       </c>
     </row>
     <row r="83">
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>251.2340294091735</v>
+        <v>2.512340294091735</v>
       </c>
     </row>
     <row r="84">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>339.0690111315005</v>
+        <v>3.390690111315005</v>
       </c>
     </row>
     <row r="85">
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>640.8547088985656</v>
+        <v>6.408547088985656</v>
       </c>
     </row>
     <row r="86">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>932.6479156134209</v>
+        <v>9.326479156134209</v>
       </c>
     </row>
     <row r="87">
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>807.9881208204587</v>
+        <v>8.079881208204586</v>
       </c>
     </row>
     <row r="88">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1642.573280613843</v>
+        <v>16.42573280613843</v>
       </c>
     </row>
     <row r="89">
@@ -2657,7 +2657,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>384.5791872237691</v>
+        <v>3.845791872237691</v>
       </c>
     </row>
     <row r="90">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>183.6796418227881</v>
+        <v>1.836796418227881</v>
       </c>
     </row>
     <row r="91">
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>116.9658381083726</v>
+        <v>1.169658381083726</v>
       </c>
     </row>
     <row r="92">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>316.4073402887454</v>
+        <v>3.164073402887454</v>
       </c>
     </row>
     <row r="93">
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>138.5852008330357</v>
+        <v>1.385852008330357</v>
       </c>
     </row>
     <row r="94">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>47.30971229154445</v>
+        <v>0.4730971229154445</v>
       </c>
     </row>
     <row r="95">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>214.8595285011388</v>
+        <v>2.148595285011389</v>
       </c>
     </row>
     <row r="96">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1223.548913114107</v>
+        <v>12.23548913114107</v>
       </c>
     </row>
     <row r="97">
@@ -2857,7 +2857,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>238.9304370140377</v>
+        <v>2.389304370140377</v>
       </c>
     </row>
     <row r="98">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>574.1677837365609</v>
+        <v>5.741677837365609</v>
       </c>
     </row>
     <row r="99">
@@ -2907,7 +2907,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>1330.025345250727</v>
+        <v>13.30025345250727</v>
       </c>
     </row>
     <row r="100">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>439.3280240266866</v>
+        <v>4.393280240266866</v>
       </c>
     </row>
     <row r="101">
@@ -2957,7 +2957,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>237.8578171584662</v>
+        <v>2.378578171584663</v>
       </c>
     </row>
     <row r="102">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>341.3840597827476</v>
+        <v>3.413840597827476</v>
       </c>
     </row>
     <row r="103">
@@ -3007,7 +3007,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>708.5032375468929</v>
+        <v>7.085032375468929</v>
       </c>
     </row>
     <row r="104">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>967.6544014946058</v>
+        <v>9.676544014946058</v>
       </c>
     </row>
     <row r="105">
@@ -3057,7 +3057,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>801.3672896719517</v>
+        <v>8.013672896719516</v>
       </c>
     </row>
     <row r="106">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>1717.718264078232</v>
+        <v>17.17718264078232</v>
       </c>
     </row>
     <row r="107">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>407.2056778637445</v>
+        <v>4.072056778637445</v>
       </c>
     </row>
     <row r="108">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>174.8971652383486</v>
+        <v>1.748971652383486</v>
       </c>
     </row>
     <row r="109">
@@ -3157,7 +3157,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>120.2498021084254</v>
+        <v>1.202498021084254</v>
       </c>
     </row>
     <row r="110">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>375.7503475206373</v>
+        <v>3.757503475206373</v>
       </c>
     </row>
     <row r="111">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>143.4512055930994</v>
+        <v>1.434512055930994</v>
       </c>
     </row>
     <row r="112">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>46.60116144035681</v>
+        <v>0.4660116144035681</v>
       </c>
     </row>
     <row r="113">
@@ -3257,7 +3257,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>102.5402679276185</v>
+        <v>1.025402679276185</v>
       </c>
     </row>
     <row r="114">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1247.712563253924</v>
+        <v>12.47712563253924</v>
       </c>
     </row>
     <row r="115">
@@ -3307,7 +3307,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>265.1747603519085</v>
+        <v>2.651747603519085</v>
       </c>
     </row>
     <row r="116">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>507.7417671650443</v>
+        <v>5.077417671650443</v>
       </c>
     </row>
     <row r="117">
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1291.125428104465</v>
+        <v>12.91125428104465</v>
       </c>
     </row>
     <row r="118">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>435.3999079674602</v>
+        <v>4.353999079674602</v>
       </c>
     </row>
     <row r="119">
@@ -3407,7 +3407,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>235.854609247315</v>
+        <v>2.35854609247315</v>
       </c>
     </row>
     <row r="120">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>330.3245014319651</v>
+        <v>3.303245014319651</v>
       </c>
     </row>
     <row r="121">
@@ -3457,7 +3457,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>785.1401761902875</v>
+        <v>7.851401761902875</v>
       </c>
     </row>
     <row r="122">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>972.3677272058</v>
+        <v>9.723677272058</v>
       </c>
     </row>
     <row r="123">
@@ -3507,7 +3507,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>802.9654848443355</v>
+        <v>8.029654848443355</v>
       </c>
     </row>
     <row r="124">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1743.822952119091</v>
+        <v>17.43822952119091</v>
       </c>
     </row>
     <row r="125">
@@ -3557,7 +3557,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>416.5764115500471</v>
+        <v>4.165764115500471</v>
       </c>
     </row>
     <row r="126">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>171.472421049992</v>
+        <v>1.71472421049992</v>
       </c>
     </row>
     <row r="127">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>125.9783070366516</v>
+        <v>1.259783070366516</v>
       </c>
     </row>
     <row r="128">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>352.7955054420659</v>
+        <v>3.527955054420659</v>
       </c>
     </row>
     <row r="129">
@@ -3657,7 +3657,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>132.9107608244527</v>
+        <v>1.329107608244527</v>
       </c>
     </row>
     <row r="130">
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>48.45267727399868</v>
+        <v>0.4845267727399868</v>
       </c>
     </row>
     <row r="131">
@@ -3707,7 +3707,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>159.9033555797444</v>
+        <v>1.599033555797444</v>
       </c>
     </row>
     <row r="132">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1244.836410066001</v>
+        <v>12.44836410066001</v>
       </c>
     </row>
     <row r="133">
@@ -3757,7 +3757,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>275.4655120676825</v>
+        <v>2.754655120676825</v>
       </c>
     </row>
     <row r="134">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>431.599424957237</v>
+        <v>4.31599424957237</v>
       </c>
     </row>
     <row r="135">
@@ -3807,7 +3807,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1315.530209667755</v>
+        <v>13.15530209667755</v>
       </c>
     </row>
     <row r="136">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>433.8473386288906</v>
+        <v>4.338473386288906</v>
       </c>
     </row>
     <row r="137">
@@ -3857,7 +3857,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>242.517268384671</v>
+        <v>2.42517268384671</v>
       </c>
     </row>
     <row r="138">
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>342.9328943995387</v>
+        <v>3.429328943995387</v>
       </c>
     </row>
     <row r="139">
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>757.1731366029812</v>
+        <v>7.571731366029812</v>
       </c>
     </row>
     <row r="140">
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>983.888012643324</v>
+        <v>9.83888012643324</v>
       </c>
     </row>
     <row r="141">
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>781.3130848322066</v>
+        <v>7.813130848322067</v>
       </c>
     </row>
     <row r="142">
@@ -3982,7 +3982,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>1764.788539201676</v>
+        <v>17.64788539201676</v>
       </c>
     </row>
     <row r="143">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>431.0687410237724</v>
+        <v>4.310687410237724</v>
       </c>
     </row>
     <row r="144">
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>174.9917047577841</v>
+        <v>1.749917047577841</v>
       </c>
     </row>
     <row r="145">
@@ -4057,7 +4057,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>125.9854236462183</v>
+        <v>1.259854236462183</v>
       </c>
     </row>
     <row r="146">
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>348.5373015146864</v>
+        <v>3.485373015146864</v>
       </c>
     </row>
     <row r="147">
@@ -4107,7 +4107,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>119.2650324813063</v>
+        <v>1.192650324813063</v>
       </c>
     </row>
     <row r="148">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>47.25884398160105</v>
+        <v>0.4725884398160105</v>
       </c>
     </row>
     <row r="149">
@@ -4157,7 +4157,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>267.9503921878507</v>
+        <v>2.679503921878507</v>
       </c>
     </row>
     <row r="150">
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>1226.766924798081</v>
+        <v>12.26766924798081</v>
       </c>
     </row>
     <row r="151">
@@ -4207,7 +4207,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>285.191685451205</v>
+        <v>2.85191685451205</v>
       </c>
     </row>
     <row r="152">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>404.7145720868724</v>
+        <v>4.047145720868723</v>
       </c>
     </row>
     <row r="153">
@@ -4257,7 +4257,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>1302.657561365128</v>
+        <v>13.02657561365127</v>
       </c>
     </row>
     <row r="154">
@@ -4282,7 +4282,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>440.2884639378499</v>
+        <v>4.402884639378499</v>
       </c>
     </row>
     <row r="155">
@@ -4307,7 +4307,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>241.7723730068284</v>
+        <v>2.417723730068285</v>
       </c>
     </row>
     <row r="156">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>342.8512015171813</v>
+        <v>3.428512015171813</v>
       </c>
     </row>
     <row r="157">
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>703.1300167189302</v>
+        <v>7.031300167189301</v>
       </c>
     </row>
     <row r="158">
@@ -4382,7 +4382,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>978.2421000973184</v>
+        <v>9.782421000973184</v>
       </c>
     </row>
     <row r="159">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>792.8815617643897</v>
+        <v>7.928815617643897</v>
       </c>
     </row>
     <row r="160">
@@ -4432,7 +4432,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>1739.076549412341</v>
+        <v>17.39076549412341</v>
       </c>
     </row>
     <row r="161">
@@ -4457,7 +4457,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>453.5937383029868</v>
+        <v>4.535937383029868</v>
       </c>
     </row>
     <row r="162">
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>181.9668449464746</v>
+        <v>1.819668449464746</v>
       </c>
     </row>
     <row r="163">
@@ -4507,7 +4507,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>123.8548364289693</v>
+        <v>1.238548364289694</v>
       </c>
     </row>
     <row r="164">
@@ -4532,7 +4532,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>324.1265414483405</v>
+        <v>3.241265414483405</v>
       </c>
     </row>
     <row r="165">
@@ -4557,7 +4557,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>121.2770683582838</v>
+        <v>1.212770683582838</v>
       </c>
     </row>
     <row r="166">
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>43.39526709208728</v>
+        <v>0.4339526709208728</v>
       </c>
     </row>
     <row r="167">
@@ -4607,7 +4607,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>287.5980621342821</v>
+        <v>2.875980621342821</v>
       </c>
     </row>
     <row r="168">
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>1201.06961428317</v>
+        <v>12.0106961428317</v>
       </c>
     </row>
     <row r="169">
@@ -4657,7 +4657,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>300.2540318191071</v>
+        <v>3.002540318191071</v>
       </c>
     </row>
     <row r="170">
@@ -4682,7 +4682,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>391.1520534920394</v>
+        <v>3.911520534920394</v>
       </c>
     </row>
     <row r="171">
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>1294.055202366518</v>
+        <v>12.94055202366518</v>
       </c>
     </row>
     <row r="172">
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>447.5147734258949</v>
+        <v>4.475147734258949</v>
       </c>
     </row>
     <row r="173">
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>248.8545914819744</v>
+        <v>2.488545914819744</v>
       </c>
     </row>
     <row r="174">
@@ -4782,7 +4782,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>344.3241790845667</v>
+        <v>3.443241790845667</v>
       </c>
     </row>
     <row r="175">
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>724.1070973482394</v>
+        <v>7.241070973482394</v>
       </c>
     </row>
     <row r="176">
@@ -4832,7 +4832,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>974.6968702549932</v>
+        <v>9.746968702549932</v>
       </c>
     </row>
     <row r="177">
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>800.2474246006246</v>
+        <v>8.002474246006246</v>
       </c>
     </row>
     <row r="178">
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>1740.044022952846</v>
+        <v>17.40044022952846</v>
       </c>
     </row>
     <row r="179">
@@ -4907,7 +4907,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>450.3086829548232</v>
+        <v>4.503086829548232</v>
       </c>
     </row>
     <row r="180">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>188.739915339507</v>
+        <v>1.88739915339507</v>
       </c>
     </row>
     <row r="181">
@@ -4957,7 +4957,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>118.2346015627014</v>
+        <v>1.182346015627014</v>
       </c>
     </row>
     <row r="182">
@@ -4982,7 +4982,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>459.9877148182018</v>
+        <v>4.599877148182018</v>
       </c>
     </row>
     <row r="183">
@@ -5007,7 +5007,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>151.620857030171</v>
+        <v>1.51620857030171</v>
       </c>
     </row>
     <row r="184">
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>47.41364473989659</v>
+        <v>0.4741364473989659</v>
       </c>
     </row>
     <row r="185">
@@ -5057,7 +5057,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>293.5812730280824</v>
+        <v>2.935812730280824</v>
       </c>
     </row>
     <row r="186">
@@ -5082,7 +5082,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>1233.808601962381</v>
+        <v>12.33808601962381</v>
       </c>
     </row>
     <row r="187">
@@ -5107,7 +5107,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>317.0796021250841</v>
+        <v>3.170796021250841</v>
       </c>
     </row>
     <row r="188">
@@ -5132,7 +5132,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>406.2525540425936</v>
+        <v>4.062525540425936</v>
       </c>
     </row>
     <row r="189">
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>1251.484282564034</v>
+        <v>12.51484282564034</v>
       </c>
     </row>
     <row r="190">
@@ -5182,7 +5182,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>414.3163156827753</v>
+        <v>4.143163156827753</v>
       </c>
     </row>
     <row r="191">
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>178.1139076840314</v>
+        <v>1.781139076840314</v>
       </c>
     </row>
     <row r="192">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>360.2369514674662</v>
+        <v>3.602369514674662</v>
       </c>
     </row>
     <row r="193">
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>689.240852490327</v>
+        <v>6.892408524903271</v>
       </c>
     </row>
     <row r="194">
@@ -5282,7 +5282,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>994.7221633807903</v>
+        <v>9.947221633807903</v>
       </c>
     </row>
     <row r="195">
@@ -5307,7 +5307,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>794.2987173342217</v>
+        <v>7.942987173342217</v>
       </c>
     </row>
     <row r="196">
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>1739.061343573107</v>
+        <v>17.39061343573107</v>
       </c>
     </row>
     <row r="197">
@@ -5357,7 +5357,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>417.3064882954909</v>
+        <v>4.173064882954909</v>
       </c>
     </row>
     <row r="198">
@@ -5382,7 +5382,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>161.2934285801365</v>
+        <v>1.612934285801365</v>
       </c>
     </row>
     <row r="199">
@@ -5407,7 +5407,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>90.18130120120932</v>
+        <v>0.9018130120120933</v>
       </c>
     </row>
     <row r="200">
@@ -5432,7 +5432,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>436.0860036223361</v>
+        <v>4.360860036223361</v>
       </c>
     </row>
     <row r="201">
@@ -5457,7 +5457,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>178.9359281388201</v>
+        <v>1.789359281388201</v>
       </c>
     </row>
     <row r="202">
@@ -5482,7 +5482,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>57.83178542219345</v>
+        <v>0.5783178542219345</v>
       </c>
     </row>
     <row r="203">
@@ -5507,7 +5507,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>212.3402648303943</v>
+        <v>2.123402648303943</v>
       </c>
     </row>
     <row r="204">
@@ -5532,7 +5532,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>968.2672977243878</v>
+        <v>9.682672977243879</v>
       </c>
     </row>
     <row r="205">
@@ -5557,7 +5557,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>325.6812650724409</v>
+        <v>3.256812650724409</v>
       </c>
     </row>
     <row r="206">
@@ -5582,7 +5582,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>781.931330420744</v>
+        <v>7.81931330420744</v>
       </c>
     </row>
     <row r="207">
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>1436.108835105732</v>
+        <v>14.36108835105732</v>
       </c>
     </row>
     <row r="208">
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>362.5567208170928</v>
+        <v>3.625567208170927</v>
       </c>
     </row>
     <row r="209">
@@ -5657,7 +5657,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>265.1742665093882</v>
+        <v>2.651742665093882</v>
       </c>
     </row>
     <row r="210">
@@ -5682,7 +5682,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>201.6011468422801</v>
+        <v>2.016011468422801</v>
       </c>
     </row>
     <row r="211">
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>309.6217317037861</v>
+        <v>3.096217317037861</v>
       </c>
     </row>
     <row r="212">
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>868.2941019563445</v>
+        <v>8.682941019563446</v>
       </c>
     </row>
     <row r="213">
@@ -5757,7 +5757,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>593.385042131364</v>
+        <v>5.93385042131364</v>
       </c>
     </row>
     <row r="214">
@@ -5782,7 +5782,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>2441.693124656337</v>
+        <v>24.41693124656337</v>
       </c>
     </row>
     <row r="215">
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>255.4645050109903</v>
+        <v>2.554645050109903</v>
       </c>
     </row>
     <row r="216">
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>176.6045038293686</v>
+        <v>1.766045038293685</v>
       </c>
     </row>
     <row r="217">
@@ -5857,7 +5857,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>128.4221462059986</v>
+        <v>1.284221462059986</v>
       </c>
     </row>
     <row r="218">
@@ -5882,7 +5882,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>471.0930196503513</v>
+        <v>4.710930196503513</v>
       </c>
     </row>
     <row r="219">
@@ -5907,7 +5907,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>177.8134013319687</v>
+        <v>1.778134013319687</v>
       </c>
     </row>
     <row r="220">
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>50.50534905165284</v>
+        <v>0.5050534905165284</v>
       </c>
     </row>
     <row r="221">
@@ -5957,7 +5957,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>239.1257808253161</v>
+        <v>2.391257808253161</v>
       </c>
     </row>
     <row r="222">
@@ -5982,7 +5982,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>835.2651978320852</v>
+        <v>8.352651978320852</v>
       </c>
     </row>
     <row r="223">
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>314.0797954682642</v>
+        <v>3.140797954682642</v>
       </c>
     </row>
     <row r="224">
@@ -6032,7 +6032,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>823.211239352247</v>
+        <v>8.23211239352247</v>
       </c>
     </row>
     <row r="225">
@@ -6057,7 +6057,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>1432.420134107536</v>
+        <v>14.32420134107536</v>
       </c>
     </row>
     <row r="226">
@@ -6082,7 +6082,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>383.7467004216167</v>
+        <v>3.837467004216166</v>
       </c>
     </row>
     <row r="227">
@@ -6107,7 +6107,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>291.5263650386651</v>
+        <v>2.915263650386651</v>
       </c>
     </row>
     <row r="228">
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>197.974629219554</v>
+        <v>1.97974629219554</v>
       </c>
     </row>
     <row r="229">
@@ -6157,7 +6157,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>299.3044703554977</v>
+        <v>2.993044703554977</v>
       </c>
     </row>
     <row r="230">
@@ -6182,7 +6182,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>881.8784075422586</v>
+        <v>8.818784075422586</v>
       </c>
     </row>
     <row r="231">
@@ -6207,7 +6207,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>610.8215836808324</v>
+        <v>6.108215836808324</v>
       </c>
     </row>
     <row r="232">
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>2429.946379321657</v>
+        <v>24.29946379321657</v>
       </c>
     </row>
     <row r="233">
@@ -6257,7 +6257,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>266.1060797595437</v>
+        <v>2.661060797595437</v>
       </c>
     </row>
     <row r="234">
@@ -6282,7 +6282,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>168.565529278894</v>
+        <v>1.68565529278894</v>
       </c>
     </row>
     <row r="235">
@@ -6307,7 +6307,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>126.6159377620607</v>
+        <v>1.266159377620607</v>
       </c>
     </row>
     <row r="236">
@@ -6332,7 +6332,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>404.7032012803595</v>
+        <v>4.047032012803595</v>
       </c>
     </row>
     <row r="237">
@@ -6357,7 +6357,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>165.6007497709341</v>
+        <v>1.656007497709341</v>
       </c>
     </row>
     <row r="238">
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>49.20029533273657</v>
+        <v>0.4920029533273657</v>
       </c>
     </row>
     <row r="239">
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>265.9931809724464</v>
+        <v>2.659931809724464</v>
       </c>
     </row>
     <row r="240">
@@ -6432,7 +6432,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>760.1191149692955</v>
+        <v>7.601191149692955</v>
       </c>
     </row>
     <row r="241">
@@ -6457,7 +6457,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>309.8329574157053</v>
+        <v>3.098329574157053</v>
       </c>
     </row>
     <row r="242">
@@ -6482,7 +6482,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>837.8057449510316</v>
+        <v>8.378057449510315</v>
       </c>
     </row>
     <row r="243">
@@ -6507,7 +6507,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>1477.144664522174</v>
+        <v>14.77144664522174</v>
       </c>
     </row>
     <row r="244">
@@ -6532,7 +6532,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>372.2680360768767</v>
+        <v>3.722680360768767</v>
       </c>
     </row>
     <row r="245">
@@ -6557,7 +6557,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>292.3103162073154</v>
+        <v>2.923103162073154</v>
       </c>
     </row>
     <row r="246">
@@ -6582,7 +6582,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>181.5524348952575</v>
+        <v>1.815524348952575</v>
       </c>
     </row>
     <row r="247">
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>308.2869172059408</v>
+        <v>3.082869172059408</v>
       </c>
     </row>
     <row r="248">
@@ -6632,7 +6632,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>958.4184304065635</v>
+        <v>9.584184304065635</v>
       </c>
     </row>
     <row r="249">
@@ -6657,7 +6657,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>632.8851431683336</v>
+        <v>6.328851431683336</v>
       </c>
     </row>
     <row r="250">
@@ -6682,7 +6682,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>2382.075718583641</v>
+        <v>23.82075718583641</v>
       </c>
     </row>
     <row r="251">
@@ -6707,7 +6707,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>302.737902832427</v>
+        <v>3.02737902832427</v>
       </c>
     </row>
     <row r="252">
@@ -6732,7 +6732,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>172.9062048101782</v>
+        <v>1.729062048101782</v>
       </c>
     </row>
     <row r="253">
@@ -6757,7 +6757,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>126.1589865987824</v>
+        <v>1.261589865987824</v>
       </c>
     </row>
     <row r="254">
@@ -6782,7 +6782,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>392.5493019189761</v>
+        <v>3.925493019189762</v>
       </c>
     </row>
     <row r="255">
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>168.8683164062573</v>
+        <v>1.688683164062573</v>
       </c>
     </row>
     <row r="256">
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>60.86909429838545</v>
+        <v>0.6086909429838545</v>
       </c>
     </row>
     <row r="257">
@@ -6857,7 +6857,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>234.4100182146513</v>
+        <v>2.344100182146513</v>
       </c>
     </row>
     <row r="258">
@@ -6882,7 +6882,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>779.3476714452717</v>
+        <v>7.793476714452717</v>
       </c>
     </row>
     <row r="259">
@@ -6907,7 +6907,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>188.2659705772136</v>
+        <v>1.882659705772135</v>
       </c>
     </row>
     <row r="260">
@@ -6932,7 +6932,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>827.5897339762885</v>
+        <v>8.275897339762885</v>
       </c>
     </row>
     <row r="261">
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>1474.343161563752</v>
+        <v>14.74343161563752</v>
       </c>
     </row>
     <row r="262">
@@ -6982,7 +6982,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>374.732794990454</v>
+        <v>3.74732794990454</v>
       </c>
     </row>
     <row r="263">
@@ -7007,7 +7007,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>303.4928421268865</v>
+        <v>3.034928421268865</v>
       </c>
     </row>
     <row r="264">
@@ -7032,7 +7032,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>183.5225623964362</v>
+        <v>1.835225623964362</v>
       </c>
     </row>
     <row r="265">
@@ -7057,7 +7057,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>295.8467325996639</v>
+        <v>2.958467325996639</v>
       </c>
     </row>
     <row r="266">
@@ -7082,7 +7082,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>999.0266884009427</v>
+        <v>9.990266884009428</v>
       </c>
     </row>
     <row r="267">
@@ -7107,7 +7107,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>646.5259037482874</v>
+        <v>6.465259037482874</v>
       </c>
     </row>
     <row r="268">
@@ -7132,7 +7132,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>2428.809528007137</v>
+        <v>24.28809528007137</v>
       </c>
     </row>
     <row r="269">
@@ -7157,7 +7157,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>339.2971137361375</v>
+        <v>3.392971137361375</v>
       </c>
     </row>
     <row r="270">
@@ -7182,7 +7182,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>169.985049286005</v>
+        <v>1.69985049286005</v>
       </c>
     </row>
     <row r="271">
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>132.517516307253</v>
+        <v>1.32517516307253</v>
       </c>
     </row>
     <row r="272">
@@ -7232,7 +7232,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>401.7931092934464</v>
+        <v>4.017931092934464</v>
       </c>
     </row>
     <row r="273">
@@ -7257,7 +7257,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>166.3347087921098</v>
+        <v>1.663347087921098</v>
       </c>
     </row>
     <row r="274">
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>64.31516297642129</v>
+        <v>0.6431516297642129</v>
       </c>
     </row>
     <row r="275">
@@ -7307,7 +7307,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>162.985372486355</v>
+        <v>1.62985372486355</v>
       </c>
     </row>
     <row r="276">
@@ -7332,7 +7332,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>767.5572835038469</v>
+        <v>7.675572835038468</v>
       </c>
     </row>
     <row r="277">
@@ -7357,7 +7357,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>215.6677520935053</v>
+        <v>2.156677520935053</v>
       </c>
     </row>
     <row r="278">
@@ -7382,7 +7382,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>793.0657561506513</v>
+        <v>7.930657561506512</v>
       </c>
     </row>
     <row r="279">
@@ -7407,7 +7407,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>1501.111153516545</v>
+        <v>15.01111153516545</v>
       </c>
     </row>
     <row r="280">
@@ -7432,7 +7432,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>360.259670250804</v>
+        <v>3.602596702508041</v>
       </c>
     </row>
     <row r="281">
@@ -7457,7 +7457,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>313.0933876370818</v>
+        <v>3.130933876370818</v>
       </c>
     </row>
     <row r="282">
@@ -7482,7 +7482,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>186.9307708324876</v>
+        <v>1.869307708324876</v>
       </c>
     </row>
     <row r="283">
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>317.552648248577</v>
+        <v>3.17552648248577</v>
       </c>
     </row>
     <row r="284">
@@ -7532,7 +7532,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>997.3900921356106</v>
+        <v>9.973900921356107</v>
       </c>
     </row>
     <row r="285">
@@ -7557,7 +7557,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>678.1669217373179</v>
+        <v>6.781669217373179</v>
       </c>
     </row>
     <row r="286">
@@ -7582,7 +7582,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>2427.161689008933</v>
+        <v>24.27161689008933</v>
       </c>
     </row>
     <row r="287">
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>350.1073818457909</v>
+        <v>3.501073818457909</v>
       </c>
     </row>
     <row r="288">
@@ -7632,7 +7632,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>169.9642149363034</v>
+        <v>1.699642149363034</v>
       </c>
     </row>
     <row r="289">
@@ -7657,7 +7657,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>126.5429245542121</v>
+        <v>1.265429245542121</v>
       </c>
     </row>
     <row r="290">
@@ -7682,7 +7682,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>399.1221838951742</v>
+        <v>3.991221838951742</v>
       </c>
     </row>
     <row r="291">
@@ -7707,7 +7707,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>181.3986278762679</v>
+        <v>1.813986278762679</v>
       </c>
     </row>
     <row r="292">
@@ -7732,7 +7732,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>65.89554741816337</v>
+        <v>0.6589554741816338</v>
       </c>
     </row>
     <row r="293">
@@ -7757,7 +7757,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>96.39068605255549</v>
+        <v>0.963906860525555</v>
       </c>
     </row>
     <row r="294">
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>904.7728315119766</v>
+        <v>9.047728315119766</v>
       </c>
     </row>
     <row r="295">
@@ -7807,7 +7807,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>259.0336677096479</v>
+        <v>2.590336677096479</v>
       </c>
     </row>
     <row r="296">
@@ -7832,7 +7832,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>733.7991985496907</v>
+        <v>7.337991985496907</v>
       </c>
     </row>
     <row r="297">
@@ -7857,7 +7857,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>1383.582191217255</v>
+        <v>13.83582191217255</v>
       </c>
     </row>
     <row r="298">
@@ -7882,7 +7882,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>363.6690446258966</v>
+        <v>3.636690446258966</v>
       </c>
     </row>
     <row r="299">
@@ -7907,7 +7907,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>294.3132822906527</v>
+        <v>2.943132822906527</v>
       </c>
     </row>
     <row r="300">
@@ -7932,7 +7932,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>175.9621744182824</v>
+        <v>1.759621744182824</v>
       </c>
     </row>
     <row r="301">
@@ -7957,7 +7957,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>351.7314349554821</v>
+        <v>3.517314349554821</v>
       </c>
     </row>
     <row r="302">
@@ -7982,7 +7982,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>1026.079530031406</v>
+        <v>10.26079530031406</v>
       </c>
     </row>
     <row r="303">
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>611.7978713112821</v>
+        <v>6.11797871311282</v>
       </c>
     </row>
     <row r="304">
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>2474.501786326613</v>
+        <v>24.74501786326613</v>
       </c>
     </row>
     <row r="305">
@@ -8057,7 +8057,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>378.9453610016497</v>
+        <v>3.789453610016497</v>
       </c>
     </row>
     <row r="306">
@@ -8082,7 +8082,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>166.8097029213409</v>
+        <v>1.668097029213409</v>
       </c>
     </row>
     <row r="307">
@@ -8107,7 +8107,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>132.1948778866627</v>
+        <v>1.321948778866627</v>
       </c>
     </row>
     <row r="308">
@@ -8132,7 +8132,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>366.7698250291568</v>
+        <v>3.667698250291568</v>
       </c>
     </row>
     <row r="309">
@@ -8157,7 +8157,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>179.9918098945662</v>
+        <v>1.799918098945662</v>
       </c>
     </row>
     <row r="310">
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>69.93991039515616</v>
+        <v>0.6993991039515616</v>
       </c>
     </row>
     <row r="311">
@@ -8207,7 +8207,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>41.60286002671531</v>
+        <v>0.416028600267153</v>
       </c>
     </row>
     <row r="312">
@@ -8232,7 +8232,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>963.5628281140887</v>
+        <v>9.635628281140887</v>
       </c>
     </row>
     <row r="313">
@@ -8257,7 +8257,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>318.6600688139368</v>
+        <v>3.186600688139368</v>
       </c>
     </row>
     <row r="314">
@@ -8282,7 +8282,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>626.5001775230937</v>
+        <v>6.265001775230937</v>
       </c>
     </row>
     <row r="315">
@@ -8307,7 +8307,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>1376.321404764412</v>
+        <v>13.76321404764412</v>
       </c>
     </row>
     <row r="316">
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>358.1186587211224</v>
+        <v>3.581186587211223</v>
       </c>
     </row>
     <row r="317">
@@ -8357,7 +8357,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>303.5796900776783</v>
+        <v>3.035796900776782</v>
       </c>
     </row>
     <row r="318">
@@ -8382,7 +8382,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>163.3642429272192</v>
+        <v>1.633642429272192</v>
       </c>
     </row>
     <row r="319">
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>389.6429531779316</v>
+        <v>3.896429531779316</v>
       </c>
     </row>
     <row r="320">
@@ -8432,7 +8432,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>1037.465234225475</v>
+        <v>10.37465234225475</v>
       </c>
     </row>
     <row r="321">
@@ -8457,7 +8457,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>609.0556175376437</v>
+        <v>6.090556175376437</v>
       </c>
     </row>
     <row r="322">
@@ -8482,7 +8482,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>2497.525362369269</v>
+        <v>24.97525362369269</v>
       </c>
     </row>
     <row r="323">
@@ -8507,7 +8507,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>399.4044119746317</v>
+        <v>3.994044119746317</v>
       </c>
     </row>
     <row r="324">
@@ -8532,7 +8532,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>164.4448466847608</v>
+        <v>1.644448466847608</v>
       </c>
     </row>
     <row r="325">
@@ -8557,7 +8557,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>134.0500977431436</v>
+        <v>1.340500977431436</v>
       </c>
     </row>
     <row r="326">
@@ -8582,7 +8582,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>422.4739342109527</v>
+        <v>4.224739342109527</v>
       </c>
     </row>
     <row r="327">
@@ -8607,7 +8607,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>168.392448276394</v>
+        <v>1.68392448276394</v>
       </c>
     </row>
     <row r="328">
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>69.29742220441987</v>
+        <v>0.6929742220441988</v>
       </c>
     </row>
     <row r="329">
@@ -8657,7 +8657,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>53.91564957882677</v>
+        <v>0.5391564957882677</v>
       </c>
     </row>
     <row r="330">
@@ -8682,7 +8682,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>956.9359124058154</v>
+        <v>9.569359124058154</v>
       </c>
     </row>
     <row r="331">
@@ -8707,7 +8707,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>362.5256951830578</v>
+        <v>3.625256951830578</v>
       </c>
     </row>
     <row r="332">
@@ -8732,7 +8732,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>512.7419136318655</v>
+        <v>5.127419136318655</v>
       </c>
     </row>
     <row r="333">
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>1384.133633619568</v>
+        <v>13.84133633619568</v>
       </c>
     </row>
     <row r="334">
@@ -8782,7 +8782,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>358.3450040552838</v>
+        <v>3.583450040552838</v>
       </c>
     </row>
     <row r="335">
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>327.994867686933</v>
+        <v>3.27994867686933</v>
       </c>
     </row>
     <row r="336">
@@ -8832,7 +8832,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>169.9371988165794</v>
+        <v>1.699371988165794</v>
       </c>
     </row>
     <row r="337">
@@ -8857,7 +8857,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>383.0346401841714</v>
+        <v>3.830346401841714</v>
       </c>
     </row>
     <row r="338">
@@ -8882,7 +8882,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>1014.588213928829</v>
+        <v>10.14588213928829</v>
       </c>
     </row>
     <row r="339">
@@ -8907,7 +8907,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>600.3409297199032</v>
+        <v>6.003409297199032</v>
       </c>
     </row>
     <row r="340">
@@ -8932,7 +8932,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>2524.095203668637</v>
+        <v>25.24095203668637</v>
       </c>
     </row>
     <row r="341">
@@ -8957,7 +8957,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>399.7016196356187</v>
+        <v>3.997016196356187</v>
       </c>
     </row>
     <row r="342">
@@ -8982,7 +8982,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>161.6810433760434</v>
+        <v>1.616810433760435</v>
       </c>
     </row>
     <row r="343">
@@ -9007,7 +9007,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>129.8646698170997</v>
+        <v>1.298646698170997</v>
       </c>
     </row>
     <row r="344">
@@ -9032,7 +9032,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>447.0302595651823</v>
+        <v>4.470302595651823</v>
       </c>
     </row>
     <row r="345">
@@ -9057,7 +9057,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>160.6622234409113</v>
+        <v>1.606622234409113</v>
       </c>
     </row>
     <row r="346">
@@ -9082,7 +9082,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>67.12076287045404</v>
+        <v>0.6712076287045404</v>
       </c>
     </row>
     <row r="347">
@@ -9107,7 +9107,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>83.2239637023655</v>
+        <v>0.8322396370236549</v>
       </c>
     </row>
     <row r="348">
@@ -9132,7 +9132,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>929.4164679047286</v>
+        <v>9.294164679047286</v>
       </c>
     </row>
     <row r="349">
@@ -9157,7 +9157,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>404.1015041857156</v>
+        <v>4.041015041857156</v>
       </c>
     </row>
     <row r="350">
@@ -9182,7 +9182,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>469.5254629988488</v>
+        <v>4.695254629988487</v>
       </c>
     </row>
     <row r="351">
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>1333.316912101384</v>
+        <v>13.33316912101384</v>
       </c>
     </row>
     <row r="352">
@@ -9232,7 +9232,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>364.9702734008979</v>
+        <v>3.649702734008979</v>
       </c>
     </row>
     <row r="353">
@@ -9257,7 +9257,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>333.8409409835889</v>
+        <v>3.338409409835889</v>
       </c>
     </row>
     <row r="354">
@@ -9282,7 +9282,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>176.2565425379147</v>
+        <v>1.762565425379147</v>
       </c>
     </row>
     <row r="355">
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>364.3048191551205</v>
+        <v>3.643048191551205</v>
       </c>
     </row>
     <row r="356">
@@ -9332,7 +9332,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>1003.9669613183</v>
+        <v>10.039669613183</v>
       </c>
     </row>
     <row r="357">
@@ -9357,7 +9357,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>620.2441398826841</v>
+        <v>6.202441398826841</v>
       </c>
     </row>
     <row r="358">
@@ -9382,7 +9382,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>2523.378951999338</v>
+        <v>25.23378951999338</v>
       </c>
     </row>
     <row r="359">
@@ -9407,7 +9407,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>431.6673815472342</v>
+        <v>4.316673815472342</v>
       </c>
     </row>
     <row r="360">
@@ -9432,7 +9432,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>161.5158457161356</v>
+        <v>1.615158457161356</v>
       </c>
     </row>
     <row r="361">
@@ -9457,7 +9457,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>125.4565866891956</v>
+        <v>1.254565866891956</v>
       </c>
     </row>
     <row r="362">
@@ -9482,7 +9482,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>422.9587260287278</v>
+        <v>4.229587260287277</v>
       </c>
     </row>
     <row r="363">
@@ -9507,7 +9507,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>165.0901559412737</v>
+        <v>1.650901559412737</v>
       </c>
     </row>
     <row r="364">
@@ -9532,7 +9532,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>64.96761833021874</v>
+        <v>0.6496761833021875</v>
       </c>
     </row>
     <row r="365">
@@ -9557,7 +9557,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>85.62725472190995</v>
+        <v>0.8562725472190995</v>
       </c>
     </row>
     <row r="366">
@@ -9582,7 +9582,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>900.3421727797397</v>
+        <v>9.003421727797397</v>
       </c>
     </row>
     <row r="367">
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>417.2281199554237</v>
+        <v>4.172281199554237</v>
       </c>
     </row>
     <row r="368">
@@ -9632,7 +9632,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>444.1859747941422</v>
+        <v>4.441859747941422</v>
       </c>
     </row>
     <row r="369">
@@ -9657,7 +9657,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>1325.861321090453</v>
+        <v>13.25861321090453</v>
       </c>
     </row>
     <row r="370">
@@ -9682,7 +9682,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>383.2011545724958</v>
+        <v>3.832011545724958</v>
       </c>
     </row>
     <row r="371">
@@ -9707,7 +9707,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>327.4530147038234</v>
+        <v>3.274530147038234</v>
       </c>
     </row>
     <row r="372">
@@ -9732,7 +9732,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>176.8624436679242</v>
+        <v>1.768624436679242</v>
       </c>
     </row>
     <row r="373">
@@ -9757,7 +9757,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>382.2625258683456</v>
+        <v>3.822625258683456</v>
       </c>
     </row>
     <row r="374">
@@ -9782,7 +9782,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>966.0895650182479</v>
+        <v>9.660895650182479</v>
       </c>
     </row>
     <row r="375">
@@ -9807,7 +9807,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>628.7059723548043</v>
+        <v>6.287059723548043</v>
       </c>
     </row>
     <row r="376">
@@ -9832,7 +9832,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>2585.182920813971</v>
+        <v>25.85182920813971</v>
       </c>
     </row>
     <row r="377">
@@ -9857,7 +9857,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>433.9108722868755</v>
+        <v>4.339108722868755</v>
       </c>
     </row>
     <row r="378">
@@ -9882,7 +9882,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>168.8295953383711</v>
+        <v>1.688295953383711</v>
       </c>
     </row>
     <row r="379">
@@ -9907,7 +9907,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>121.2405917332519</v>
+        <v>1.212405917332519</v>
       </c>
     </row>
     <row r="380">
@@ -9932,7 +9932,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>622.2196957565706</v>
+        <v>6.222196957565706</v>
       </c>
     </row>
     <row r="381">
@@ -9957,7 +9957,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>198.2038504175779</v>
+        <v>1.982038504175779</v>
       </c>
     </row>
     <row r="382">
@@ -9982,7 +9982,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>70.35442882267766</v>
+        <v>0.7035442882267766</v>
       </c>
     </row>
     <row r="383">
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>81.54861758354222</v>
+        <v>0.8154861758354223</v>
       </c>
     </row>
     <row r="384">
@@ -10032,7 +10032,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>901.9549890786218</v>
+        <v>9.019549890786218</v>
       </c>
     </row>
     <row r="385">
@@ -10057,7 +10057,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>461.3155587151373</v>
+        <v>4.613155587151373</v>
       </c>
     </row>
     <row r="386">
@@ -10082,7 +10082,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>465.2946699744313</v>
+        <v>4.652946699744312</v>
       </c>
     </row>
     <row r="387">
@@ -10107,7 +10107,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>1244.283043506134</v>
+        <v>12.44283043506134</v>
       </c>
     </row>
     <row r="388">
@@ -10132,7 +10132,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>323.6943456639927</v>
+        <v>3.236943456639928</v>
       </c>
     </row>
     <row r="389">
@@ -10157,7 +10157,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>243.0937146620394</v>
+        <v>2.430937146620394</v>
       </c>
     </row>
     <row r="390">
@@ -10182,7 +10182,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>175.2874811753258</v>
+        <v>1.752874811753258</v>
       </c>
     </row>
     <row r="391">
@@ -10207,7 +10207,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>362.4947123875449</v>
+        <v>3.624947123875449</v>
       </c>
     </row>
     <row r="392">
@@ -10232,7 +10232,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>1002.308592524623</v>
+        <v>10.02308592524623</v>
       </c>
     </row>
     <row r="393">
@@ -10257,7 +10257,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>613.121554079563</v>
+        <v>6.13121554079563</v>
       </c>
     </row>
     <row r="394">
@@ -10282,7 +10282,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>2601.209956040294</v>
+        <v>26.01209956040294</v>
       </c>
     </row>
     <row r="395">
@@ -10307,7 +10307,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>392.6582414454061</v>
+        <v>3.926582414454061</v>
       </c>
     </row>
     <row r="396">
@@ -10332,7 +10332,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>147.6178829300465</v>
+        <v>1.476178829300465</v>
       </c>
     </row>
     <row r="397">
@@ -10357,7 +10357,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>93.3386652364707</v>
+        <v>0.933386652364707</v>
       </c>
     </row>
     <row r="398">
@@ -10382,7 +10382,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>502.0063200129881</v>
+        <v>5.020063200129881</v>
       </c>
     </row>
     <row r="399">
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>121.3102310362816</v>
+        <v>1.213102310362816</v>
       </c>
     </row>
     <row r="400">
@@ -10432,7 +10432,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>14.91784919213019</v>
+        <v>0.1491784919213019</v>
       </c>
     </row>
     <row r="401">
@@ -10457,7 +10457,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>659.9205835378215</v>
+        <v>6.599205835378215</v>
       </c>
     </row>
     <row r="402">
@@ -10482,7 +10482,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>623.0744579681633</v>
+        <v>6.230744579681633</v>
       </c>
     </row>
     <row r="403">
@@ -10507,7 +10507,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>852.1318299743886</v>
+        <v>8.521318299743886</v>
       </c>
     </row>
     <row r="404">
@@ -10532,7 +10532,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>760.4025635827126</v>
+        <v>7.604025635827126</v>
       </c>
     </row>
     <row r="405">
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>1090.604637735634</v>
+        <v>10.90604637735635</v>
       </c>
     </row>
     <row r="406">
@@ -10582,7 +10582,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>321.6315782585656</v>
+        <v>3.216315782585656</v>
       </c>
     </row>
     <row r="407">
@@ -10607,7 +10607,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>202.9027790141942</v>
+        <v>2.029027790141942</v>
       </c>
     </row>
     <row r="408">
@@ -10632,7 +10632,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>118.2196273826553</v>
+        <v>1.182196273826553</v>
       </c>
     </row>
     <row r="409">
@@ -10657,7 +10657,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>248.3200504831578</v>
+        <v>2.483200504831578</v>
       </c>
     </row>
     <row r="410">
@@ -10682,7 +10682,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>754.7937989758312</v>
+        <v>7.547937989758313</v>
       </c>
     </row>
     <row r="411">
@@ -10707,7 +10707,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>456.0686677676894</v>
+        <v>4.560686677676894</v>
       </c>
     </row>
     <row r="412">
@@ -10732,7 +10732,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>2664.595170960955</v>
+        <v>26.64595170960956</v>
       </c>
     </row>
     <row r="413">
@@ -10757,7 +10757,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>339.4415262251358</v>
+        <v>3.394415262251357</v>
       </c>
     </row>
     <row r="414">
@@ -10782,7 +10782,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>161.1246151671415</v>
+        <v>1.611246151671415</v>
       </c>
     </row>
     <row r="415">
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>108.5337127245514</v>
+        <v>1.085337127245514</v>
       </c>
     </row>
     <row r="416">
@@ -10832,7 +10832,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>385.4901078302411</v>
+        <v>3.854901078302411</v>
       </c>
     </row>
     <row r="417">
@@ -10857,7 +10857,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>113.8904173754708</v>
+        <v>1.138904173754708</v>
       </c>
     </row>
     <row r="418">
@@ -10882,7 +10882,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>22.73174135196854</v>
+        <v>0.2273174135196854</v>
       </c>
     </row>
     <row r="419">
@@ -10907,7 +10907,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>752.4811664475512</v>
+        <v>7.524811664475513</v>
       </c>
     </row>
     <row r="420">
@@ -10932,7 +10932,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>670.0095630990321</v>
+        <v>6.700095630990321</v>
       </c>
     </row>
     <row r="421">
@@ -10957,7 +10957,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>759.5747956559584</v>
+        <v>7.595747956559584</v>
       </c>
     </row>
     <row r="422">
@@ -10982,7 +10982,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>787.803457897097</v>
+        <v>7.87803457897097</v>
       </c>
     </row>
     <row r="423">
@@ -11007,7 +11007,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>1113.751532022821</v>
+        <v>11.13751532022821</v>
       </c>
     </row>
     <row r="424">
@@ -11032,7 +11032,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>335.9877278438192</v>
+        <v>3.359877278438192</v>
       </c>
     </row>
     <row r="425">
@@ -11057,7 +11057,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>222.0024083451075</v>
+        <v>2.220024083451074</v>
       </c>
     </row>
     <row r="426">
@@ -11082,7 +11082,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>113.2934297252483</v>
+        <v>1.132934297252483</v>
       </c>
     </row>
     <row r="427">
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>254.2920915169383</v>
+        <v>2.542920915169383</v>
       </c>
     </row>
     <row r="428">
@@ -11132,7 +11132,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>746.796735927397</v>
+        <v>7.467967359273969</v>
       </c>
     </row>
     <row r="429">
@@ -11157,7 +11157,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>483.5221810065333</v>
+        <v>4.835221810065334</v>
       </c>
     </row>
     <row r="430">
@@ -11182,7 +11182,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>2610.917181419181</v>
+        <v>26.10917181419181</v>
       </c>
     </row>
     <row r="431">
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>363.8984599529115</v>
+        <v>3.638984599529115</v>
       </c>
     </row>
     <row r="432">
@@ -11232,7 +11232,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>154.7705198166231</v>
+        <v>1.547705198166231</v>
       </c>
     </row>
     <row r="433">
@@ -11257,7 +11257,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>108.7864827660991</v>
+        <v>1.087864827660991</v>
       </c>
     </row>
     <row r="434">
@@ -11282,7 +11282,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>376.8334374324702</v>
+        <v>3.768334374324702</v>
       </c>
     </row>
     <row r="435">
@@ -11307,7 +11307,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>111.1627955908499</v>
+        <v>1.111627955908499</v>
       </c>
     </row>
     <row r="436">
@@ -11332,7 +11332,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>21.71355834344565</v>
+        <v>0.2171355834344565</v>
       </c>
     </row>
     <row r="437">
@@ -11357,7 +11357,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>809.5256216718386</v>
+        <v>8.095256216718386</v>
       </c>
     </row>
     <row r="438">
@@ -11382,7 +11382,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>589.2582474283447</v>
+        <v>5.892582474283447</v>
       </c>
     </row>
     <row r="439">
@@ -11407,7 +11407,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>772.1438975490664</v>
+        <v>7.721438975490664</v>
       </c>
     </row>
     <row r="440">
@@ -11432,7 +11432,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>879.9171143002636</v>
+        <v>8.799171143002637</v>
       </c>
     </row>
     <row r="441">
@@ -11457,7 +11457,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>1191.909410176129</v>
+        <v>11.91909410176129</v>
       </c>
     </row>
     <row r="442">
@@ -11482,7 +11482,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>285.8183383884244</v>
+        <v>2.858183383884244</v>
       </c>
     </row>
     <row r="443">
@@ -11507,7 +11507,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>220.6118595215357</v>
+        <v>2.206118595215357</v>
       </c>
     </row>
     <row r="444">
@@ -11532,7 +11532,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>94.82783438475865</v>
+        <v>0.9482783438475865</v>
       </c>
     </row>
     <row r="445">
@@ -11557,7 +11557,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>245.6612226143883</v>
+        <v>2.456612226143883</v>
       </c>
     </row>
     <row r="446">
@@ -11582,7 +11582,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>769.8229941566534</v>
+        <v>7.698229941566534</v>
       </c>
     </row>
     <row r="447">
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>511.4749793155126</v>
+        <v>5.114749793155126</v>
       </c>
     </row>
     <row r="448">
@@ -11632,7 +11632,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>2480.454697016024</v>
+        <v>24.80454697016024</v>
       </c>
     </row>
     <row r="449">
@@ -11657,7 +11657,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>413.4053377122688</v>
+        <v>4.134053377122688</v>
       </c>
     </row>
     <row r="450">
@@ -11682,7 +11682,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>137.9142341245729</v>
+        <v>1.379142341245729</v>
       </c>
     </row>
     <row r="451">
@@ -11707,7 +11707,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>87.54442027345162</v>
+        <v>0.8754442027345162</v>
       </c>
     </row>
     <row r="452">
@@ -11732,7 +11732,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>417.1484617525588</v>
+        <v>4.171484617525588</v>
       </c>
     </row>
     <row r="453">
@@ -11757,7 +11757,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>133.0154592226171</v>
+        <v>1.330154592226171</v>
       </c>
     </row>
     <row r="454">
@@ -11782,7 +11782,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>18.47224838920367</v>
+        <v>0.1847224838920367</v>
       </c>
     </row>
     <row r="455">
@@ -11807,7 +11807,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>760.7836205761832</v>
+        <v>7.607836205761832</v>
       </c>
     </row>
     <row r="456">
@@ -11832,7 +11832,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>693.6778718259593</v>
+        <v>6.936778718259593</v>
       </c>
     </row>
     <row r="457">
@@ -11857,7 +11857,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>273.4317110849835</v>
+        <v>2.734317110849835</v>
       </c>
     </row>
     <row r="458">
@@ -11882,7 +11882,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>827.2584551513321</v>
+        <v>8.272584551513321</v>
       </c>
     </row>
     <row r="459">
@@ -11907,7 +11907,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>1238.371278458203</v>
+        <v>12.38371278458203</v>
       </c>
     </row>
     <row r="460">
@@ -11932,7 +11932,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>323.2124743255618</v>
+        <v>3.232124743255618</v>
       </c>
     </row>
     <row r="461">
@@ -11957,7 +11957,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>224.2260161311135</v>
+        <v>2.242260161311135</v>
       </c>
     </row>
     <row r="462">
@@ -11982,7 +11982,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>104.553358602317</v>
+        <v>1.04553358602317</v>
       </c>
     </row>
     <row r="463">
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>250.6529083010889</v>
+        <v>2.506529083010889</v>
       </c>
     </row>
     <row r="464">
@@ -12032,7 +12032,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>886.5816252130899</v>
+        <v>8.865816252130898</v>
       </c>
     </row>
     <row r="465">
@@ -12057,7 +12057,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>515.6463291274957</v>
+        <v>5.156463291274958</v>
       </c>
     </row>
     <row r="466">
@@ -12082,7 +12082,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>2596.291250200701</v>
+        <v>25.96291250200701</v>
       </c>
     </row>
     <row r="467">
@@ -12107,7 +12107,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>497.5194142448269</v>
+        <v>4.975194142448269</v>
       </c>
     </row>
     <row r="468">
@@ -12132,7 +12132,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>116.3938849070534</v>
+        <v>1.163938849070534</v>
       </c>
     </row>
     <row r="469">
@@ -12157,7 +12157,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>122.7636324857121</v>
+        <v>1.22763632485712</v>
       </c>
     </row>
     <row r="470">
@@ -12182,7 +12182,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>373.7978615532527</v>
+        <v>3.737978615532527</v>
       </c>
     </row>
     <row r="471">
@@ -12207,7 +12207,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>129.5042120092712</v>
+        <v>1.295042120092712</v>
       </c>
     </row>
     <row r="472">
@@ -12232,7 +12232,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>20.03754782103821</v>
+        <v>0.2003754782103821</v>
       </c>
     </row>
     <row r="473">
@@ -12257,7 +12257,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>712.1891468735919</v>
+        <v>7.121891468735919</v>
       </c>
     </row>
     <row r="474">
@@ -12282,7 +12282,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>677.3858914360237</v>
+        <v>6.773858914360237</v>
       </c>
     </row>
     <row r="475">
@@ -12307,7 +12307,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>332.595954610292</v>
+        <v>3.32595954610292</v>
       </c>
     </row>
     <row r="476">
@@ -12332,7 +12332,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>742.6732932755682</v>
+        <v>7.426732932755682</v>
       </c>
     </row>
     <row r="477">
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>1188.91270665286</v>
+        <v>11.8891270665286</v>
       </c>
     </row>
     <row r="478">
@@ -12382,7 +12382,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>289.1915178394803</v>
+        <v>2.891915178394803</v>
       </c>
     </row>
     <row r="479">
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>235.0424001574964</v>
+        <v>2.350424001574964</v>
       </c>
     </row>
     <row r="480">
@@ -12432,7 +12432,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>151.844167984444</v>
+        <v>1.51844167984444</v>
       </c>
     </row>
     <row r="481">
@@ -12457,7 +12457,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>304.0451200598143</v>
+        <v>3.040451200598143</v>
       </c>
     </row>
     <row r="482">
@@ -12482,7 +12482,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>824.2360407246202</v>
+        <v>8.242360407246203</v>
       </c>
     </row>
     <row r="483">
@@ -12507,7 +12507,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>571.939605037991</v>
+        <v>5.71939605037991</v>
       </c>
     </row>
     <row r="484">
@@ -12532,7 +12532,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>2691.930412825489</v>
+        <v>26.91930412825489</v>
       </c>
     </row>
     <row r="485">
@@ -12557,7 +12557,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>510.6781951917097</v>
+        <v>5.106781951917097</v>
       </c>
     </row>
     <row r="486">
@@ -12582,7 +12582,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>127.9376588937124</v>
+        <v>1.279376588937124</v>
       </c>
     </row>
     <row r="487">
@@ -12607,7 +12607,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>116.0582670533456</v>
+        <v>1.160582670533456</v>
       </c>
     </row>
     <row r="488">
@@ -12632,7 +12632,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>357.3282551106743</v>
+        <v>3.573282551106743</v>
       </c>
     </row>
     <row r="489">
@@ -12657,7 +12657,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>133.0602936094149</v>
+        <v>1.330602936094149</v>
       </c>
     </row>
     <row r="490">
@@ -12682,7 +12682,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>11.67185139720425</v>
+        <v>0.1167185139720425</v>
       </c>
     </row>
     <row r="491">
@@ -12707,7 +12707,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>313.6989225731996</v>
+        <v>3.136989225731996</v>
       </c>
     </row>
     <row r="492">
@@ -12732,7 +12732,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>732.6593271557402</v>
+        <v>7.326593271557402</v>
       </c>
     </row>
     <row r="493">
@@ -12757,7 +12757,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>473.7055420180142</v>
+        <v>4.737055420180142</v>
       </c>
     </row>
     <row r="494">
@@ -12782,7 +12782,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>754.5000241500785</v>
+        <v>7.545000241500785</v>
       </c>
     </row>
     <row r="495">
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>1173.743486454495</v>
+        <v>11.73743486454495</v>
       </c>
     </row>
     <row r="496">
@@ -12832,7 +12832,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>274.1455464544606</v>
+        <v>2.741455464544606</v>
       </c>
     </row>
     <row r="497">
@@ -12857,7 +12857,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>260.8872785565578</v>
+        <v>2.608872785565578</v>
       </c>
     </row>
     <row r="498">
@@ -12882,7 +12882,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>149.7244114409443</v>
+        <v>1.497244114409443</v>
       </c>
     </row>
     <row r="499">
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>351.1956187357138</v>
+        <v>3.511956187357138</v>
       </c>
     </row>
     <row r="500">
@@ -12932,7 +12932,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>877.9765641250476</v>
+        <v>8.779765641250476</v>
       </c>
     </row>
     <row r="501">
@@ -12957,7 +12957,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>554.9623975801685</v>
+        <v>5.549623975801685</v>
       </c>
     </row>
     <row r="502">
@@ -12982,7 +12982,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>2775.709951444039</v>
+        <v>27.75709951444039</v>
       </c>
     </row>
     <row r="503">
@@ -13007,7 +13007,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>526.3696305640968</v>
+        <v>5.263696305640968</v>
       </c>
     </row>
     <row r="504">
@@ -13032,7 +13032,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>143.7207105556935</v>
+        <v>1.437207105556935</v>
       </c>
     </row>
     <row r="505">
@@ -13057,7 +13057,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>134.940188074457</v>
+        <v>1.34940188074457</v>
       </c>
     </row>
     <row r="506">
@@ -13082,7 +13082,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>349.8781628075864</v>
+        <v>3.498781628075864</v>
       </c>
     </row>
     <row r="507">
@@ -13107,7 +13107,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>136.3165649694435</v>
+        <v>1.363165649694435</v>
       </c>
     </row>
     <row r="508">
@@ -13132,7 +13132,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>10.23561435260745</v>
+        <v>0.1023561435260745</v>
       </c>
     </row>
     <row r="509">
@@ -13157,7 +13157,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>93.79323327785349</v>
+        <v>0.9379323327785349</v>
       </c>
     </row>
     <row r="510">
@@ -13182,7 +13182,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>609.2568461295361</v>
+        <v>6.092568461295362</v>
       </c>
     </row>
     <row r="511">
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>520.3533612502146</v>
+        <v>5.203533612502146</v>
       </c>
     </row>
     <row r="512">
@@ -13232,7 +13232,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>783.4153212188362</v>
+        <v>7.834153212188362</v>
       </c>
     </row>
     <row r="513">
@@ -13257,7 +13257,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>1301.013576953323</v>
+        <v>13.01013576953323</v>
       </c>
     </row>
     <row r="514">
@@ -13282,7 +13282,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>286.583204618469</v>
+        <v>2.86583204618469</v>
       </c>
     </row>
     <row r="515">
@@ -13307,7 +13307,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>280.450635869107</v>
+        <v>2.80450635869107</v>
       </c>
     </row>
     <row r="516">
@@ -13332,7 +13332,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>151.9985055440735</v>
+        <v>1.519985055440735</v>
       </c>
     </row>
     <row r="517">
@@ -13357,7 +13357,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>418.9767169062763</v>
+        <v>4.189767169062763</v>
       </c>
     </row>
     <row r="518">
@@ -13382,7 +13382,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>974.5459324626438</v>
+        <v>9.745459324626438</v>
       </c>
     </row>
     <row r="519">
@@ -13407,7 +13407,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>570.4287975543692</v>
+        <v>5.704287975543692</v>
       </c>
     </row>
     <row r="520">
@@ -13432,7 +13432,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>2838.528200296119</v>
+        <v>28.38528200296119</v>
       </c>
     </row>
     <row r="521">
@@ -13457,7 +13457,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>388.8469148112928</v>
+        <v>3.888469148112928</v>
       </c>
     </row>
     <row r="522">
@@ -13482,7 +13482,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>145.005758206236</v>
+        <v>1.45005758206236</v>
       </c>
     </row>
     <row r="523">
@@ -13507,7 +13507,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>140.3726527720124</v>
+        <v>1.403726527720124</v>
       </c>
     </row>
     <row r="524">
@@ -13532,7 +13532,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>397.0419972716572</v>
+        <v>3.970419972716572</v>
       </c>
     </row>
     <row r="525">
@@ -13557,7 +13557,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>128.1399758914239</v>
+        <v>1.281399758914239</v>
       </c>
     </row>
     <row r="526">
@@ -13582,7 +13582,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>14.84017902232903</v>
+        <v>0.1484017902232903</v>
       </c>
     </row>
     <row r="527">
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>115.7204304284664</v>
+        <v>1.157204304284664</v>
       </c>
     </row>
     <row r="528">
@@ -13632,7 +13632,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>610.1349335615218</v>
+        <v>6.101349335615218</v>
       </c>
     </row>
     <row r="529">
@@ -13657,7 +13657,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>554.8149593313925</v>
+        <v>5.548149593313925</v>
       </c>
     </row>
     <row r="530">
@@ -13682,7 +13682,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>633.0738625538543</v>
+        <v>6.330738625538543</v>
       </c>
     </row>
     <row r="531">
@@ -13707,7 +13707,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>1170.70689494522</v>
+        <v>11.70706894945219</v>
       </c>
     </row>
     <row r="532">
@@ -13732,7 +13732,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>321.1856105279508</v>
+        <v>3.211856105279508</v>
       </c>
     </row>
     <row r="533">
@@ -13757,7 +13757,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>318.9882127596966</v>
+        <v>3.189882127596966</v>
       </c>
     </row>
     <row r="534">
@@ -13782,7 +13782,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>154.7783898967995</v>
+        <v>1.547783898967995</v>
       </c>
     </row>
     <row r="535">
@@ -13807,7 +13807,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>454.979178911025</v>
+        <v>4.54979178911025</v>
       </c>
     </row>
     <row r="536">
@@ -13832,7 +13832,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>973.5270762111199</v>
+        <v>9.735270762111199</v>
       </c>
     </row>
     <row r="537">
@@ -13857,7 +13857,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>555.4482545735735</v>
+        <v>5.554482545735736</v>
       </c>
     </row>
     <row r="538">
@@ -13882,7 +13882,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>2887.298088859357</v>
+        <v>28.87298088859356</v>
       </c>
     </row>
     <row r="539">
@@ -13907,7 +13907,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>406.3791033291402</v>
+        <v>4.063791033291402</v>
       </c>
     </row>
     <row r="540">
@@ -13932,7 +13932,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>149.582238865657</v>
+        <v>1.49582238865657</v>
       </c>
     </row>
     <row r="541">
@@ -13957,7 +13957,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>153.3606130598178</v>
+        <v>1.533606130598178</v>
       </c>
     </row>
     <row r="542">
@@ -13982,7 +13982,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>260.2500227995247</v>
+        <v>2.602500227995248</v>
       </c>
     </row>
     <row r="543">
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>106.3645172100253</v>
+        <v>1.063645172100253</v>
       </c>
     </row>
     <row r="544">
@@ -14032,7 +14032,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>14.34562068229694</v>
+        <v>0.1434562068229694</v>
       </c>
     </row>
     <row r="545">
@@ -14057,7 +14057,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>207.5887730001428</v>
+        <v>2.075887730001428</v>
       </c>
     </row>
     <row r="546">
@@ -14082,7 +14082,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>566.3294383826394</v>
+        <v>5.663294383826394</v>
       </c>
     </row>
     <row r="547">
@@ -14107,7 +14107,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>732.5729948993267</v>
+        <v>7.325729948993267</v>
       </c>
     </row>
     <row r="548">
@@ -14132,7 +14132,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>493.8976871560196</v>
+        <v>4.938976871560196</v>
       </c>
     </row>
     <row r="549">
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>1228.343718793644</v>
+        <v>12.28343718793644</v>
       </c>
     </row>
     <row r="550">
@@ -14182,7 +14182,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>291.3314834589436</v>
+        <v>2.913314834589436</v>
       </c>
     </row>
     <row r="551">
@@ -14207,7 +14207,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>325.161516041517</v>
+        <v>3.25161516041517</v>
       </c>
     </row>
     <row r="552">
@@ -14232,7 +14232,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>149.4283896929478</v>
+        <v>1.494283896929478</v>
       </c>
     </row>
     <row r="553">
@@ -14257,7 +14257,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>455.5693243745226</v>
+        <v>4.555693243745226</v>
       </c>
     </row>
     <row r="554">
@@ -14282,7 +14282,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>1018.354415152894</v>
+        <v>10.18354415152895</v>
       </c>
     </row>
     <row r="555">
@@ -14307,7 +14307,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>539.5068293517235</v>
+        <v>5.395068293517235</v>
       </c>
     </row>
     <row r="556">
@@ -14332,7 +14332,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>2906.315170049946</v>
+        <v>29.06315170049946</v>
       </c>
     </row>
     <row r="557">
@@ -14357,7 +14357,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>400.7209069237018</v>
+        <v>4.007209069237017</v>
       </c>
     </row>
     <row r="558">
@@ -14382,7 +14382,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>157.6048984184569</v>
+        <v>1.576048984184569</v>
       </c>
     </row>
     <row r="559">
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>146.3142936117271</v>
+        <v>1.463142936117271</v>
       </c>
     </row>
     <row r="560">
@@ -14432,7 +14432,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>383.6571220665191</v>
+        <v>3.836571220665191</v>
       </c>
     </row>
     <row r="561">
@@ -14457,7 +14457,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>111.5951532839152</v>
+        <v>1.115951532839152</v>
       </c>
     </row>
     <row r="562">
@@ -14482,7 +14482,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>15.80420314036025</v>
+        <v>0.1580420314036025</v>
       </c>
     </row>
     <row r="563">
@@ -14507,7 +14507,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>169.6136269101621</v>
+        <v>1.696136269101621</v>
       </c>
     </row>
     <row r="564">
@@ -14532,7 +14532,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>578.3816936208598</v>
+        <v>5.783816936208598</v>
       </c>
     </row>
     <row r="565">
@@ -14557,7 +14557,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>838.5288950813754</v>
+        <v>8.385288950813754</v>
       </c>
     </row>
     <row r="566">
@@ -14582,7 +14582,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>385.6216763893484</v>
+        <v>3.856216763893484</v>
       </c>
     </row>
     <row r="567">
@@ -14607,7 +14607,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>1113.52296906768</v>
+        <v>11.1352296906768</v>
       </c>
     </row>
     <row r="568">
@@ -14632,7 +14632,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>272.3223848532595</v>
+        <v>2.723223848532595</v>
       </c>
     </row>
     <row r="569">
@@ -14657,7 +14657,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>315.264814971154</v>
+        <v>3.15264814971154</v>
       </c>
     </row>
     <row r="570">
@@ -14682,7 +14682,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>137.3629226547044</v>
+        <v>1.373629226547044</v>
       </c>
     </row>
     <row r="571">
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>464.8039602383902</v>
+        <v>4.648039602383902</v>
       </c>
     </row>
     <row r="572">
@@ -14732,7 +14732,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>959.0009063205974</v>
+        <v>9.590009063205974</v>
       </c>
     </row>
     <row r="573">
@@ -14757,7 +14757,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>545.7026490566471</v>
+        <v>5.457026490566471</v>
       </c>
     </row>
     <row r="574">
@@ -14782,7 +14782,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>2966.877082761288</v>
+        <v>29.66877082761288</v>
       </c>
     </row>
     <row r="575">
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>431.4315395562466</v>
+        <v>4.314315395562466</v>
       </c>
     </row>
     <row r="576">
@@ -14832,7 +14832,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>158.0176280549855</v>
+        <v>1.580176280549855</v>
       </c>
     </row>
     <row r="577">
@@ -14857,7 +14857,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>152.490771972506</v>
+        <v>1.52490771972506</v>
       </c>
     </row>
     <row r="578">
@@ -14882,7 +14882,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>481.5974690117882</v>
+        <v>4.815974690117882</v>
       </c>
     </row>
     <row r="579">
@@ -14907,7 +14907,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>138.6859602585808</v>
+        <v>1.386859602585808</v>
       </c>
     </row>
     <row r="580">
@@ -14932,7 +14932,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>14.63697805349531</v>
+        <v>0.1463697805349531</v>
       </c>
     </row>
     <row r="581">
@@ -14957,7 +14957,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>107.6931330859328</v>
+        <v>1.076931330859328</v>
       </c>
     </row>
     <row r="582">
@@ -14982,7 +14982,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>601.9097974713692</v>
+        <v>6.019097974713691</v>
       </c>
     </row>
     <row r="583">
@@ -15007,7 +15007,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>1076.598524792938</v>
+        <v>10.76598524792938</v>
       </c>
     </row>
     <row r="584">
@@ -15032,7 +15032,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>402.7147926206627</v>
+        <v>4.027147926206627</v>
       </c>
     </row>
     <row r="585">
@@ -15057,7 +15057,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>1129.892552595872</v>
+        <v>11.29892552595872</v>
       </c>
     </row>
     <row r="586">
@@ -15082,7 +15082,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>233.9770105152091</v>
+        <v>2.339770105152091</v>
       </c>
     </row>
     <row r="587">
@@ -15107,7 +15107,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>215.5925598716457</v>
+        <v>2.155925598716457</v>
       </c>
     </row>
     <row r="588">
@@ -15132,7 +15132,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>127.8971429947415</v>
+        <v>1.278971429947415</v>
       </c>
     </row>
     <row r="589">
@@ -15157,7 +15157,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>430.8433060506281</v>
+        <v>4.308433060506281</v>
       </c>
     </row>
     <row r="590">
@@ -15182,7 +15182,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>916.5772521619421</v>
+        <v>9.16577252161942</v>
       </c>
     </row>
     <row r="591">
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>556.4448598067873</v>
+        <v>5.564448598067873</v>
       </c>
     </row>
     <row r="592">
@@ -15232,7 +15232,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>2958.493825912084</v>
+        <v>29.58493825912084</v>
       </c>
     </row>
     <row r="593">
@@ -15257,7 +15257,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>362.238637420589</v>
+        <v>3.62238637420589</v>
       </c>
     </row>
     <row r="594">
@@ -15282,7 +15282,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>135.602095617167</v>
+        <v>1.356020956171671</v>
       </c>
     </row>
     <row r="595">
@@ -15307,7 +15307,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>108.6041017585676</v>
+        <v>1.086041017585676</v>
       </c>
     </row>
   </sheetData>
